--- a/Uebersicht.xlsx
+++ b/Uebersicht.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t xml:space="preserve">Bezeichnung</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">✅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DtFibonacci</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -153,6 +156,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -175,13 +186,13 @@
   <dimension ref="B2:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.04"/>
   </cols>
@@ -211,179 +222,187 @@
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Uebersicht.xlsx
+++ b/Uebersicht.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t xml:space="preserve">Bezeichnung</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">DtFibonacci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DtNadeltelegraph</t>
   </si>
 </sst>
 </file>
@@ -186,13 +189,13 @@
   <dimension ref="B2:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="24.04"/>
   </cols>
@@ -242,10 +245,16 @@
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Uebersicht.xlsx
+++ b/Uebersicht.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t xml:space="preserve">Bezeichnung</t>
   </si>
@@ -62,6 +62,7 @@
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">卡塔</t>
     </r>
@@ -109,6 +110,7 @@
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -197,13 +199,13 @@
   <dimension ref="B2:F32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.66"/>
   </cols>
@@ -263,7 +265,9 @@
       <c r="D6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">

--- a/Uebersicht.xlsx
+++ b/Uebersicht.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t xml:space="preserve">Bezeichnung</t>
   </si>
@@ -66,6 +66,15 @@
       </rPr>
       <t xml:space="preserve">卡塔</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DtLinearachse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">601/2.1 – 2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DtBehältersteuerung</t>
   </si>
 </sst>
 </file>
@@ -196,18 +205,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:F32"/>
+  <dimension ref="B2:G32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.1"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -280,15 +290,32 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Uebersicht.xlsx
+++ b/Uebersicht.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t xml:space="preserve">Bezeichnung</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t xml:space="preserve">DtBehältersteuerung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DtLap2010_1_Kompressoranlage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DtLap2010_2_Transportwagen</t>
   </si>
 </sst>
 </file>
@@ -208,12 +214,12 @@
   <dimension ref="B2:G32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.66"/>
@@ -319,15 +325,27 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Uebersicht.xlsx
+++ b/Uebersicht.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t xml:space="preserve">Bezeichnung</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">DtLap2010_2_Transportwagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DtLap2010_3_Ofentuersteuerung</t>
   </si>
 </sst>
 </file>
@@ -214,10 +217,10 @@
   <dimension ref="B2:G32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.88"/>
@@ -349,9 +352,15 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Uebersicht.xlsx
+++ b/Uebersicht.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t xml:space="preserve">Bezeichnung</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t xml:space="preserve">DtLap2010_3_Ofentuersteuerung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DtLap2010_5_Pumpensteuerung</t>
   </si>
 </sst>
 </file>
@@ -217,10 +220,10 @@
   <dimension ref="B2:G32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.88"/>
@@ -370,9 +373,15 @@
       <c r="E13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="E14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
